--- a/webscrapping/src/test/resources/ScrapeData/Hypothyroid.xlsx
+++ b/webscrapping/src/test/resources/ScrapeData/Hypothyroid.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reka\Desktop\"/>
     </mc:Choice>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="254">
   <si>
     <t>sheetcounter</t>
   </si>
@@ -58,12 +58,1966 @@
   </si>
   <si>
     <t>Vegetarian Hypothyroid</t>
+  </si>
+  <si>
+    <t>Recipe ID</t>
+  </si>
+  <si>
+    <t>Recipe Name</t>
+  </si>
+  <si>
+    <t>Page Title</t>
+  </si>
+  <si>
+    <t>Vegan Diabetic Food Category</t>
+  </si>
+  <si>
+    <t>Ingredients</t>
+  </si>
+  <si>
+    <t>RecipePrepTime</t>
+  </si>
+  <si>
+    <t>RecipeCookTime</t>
+  </si>
+  <si>
+    <t>Preparation Method</t>
+  </si>
+  <si>
+    <t>Nutrient values</t>
+  </si>
+  <si>
+    <t>Targetted morbid conditions (Diabeties/Hypertension/Hypothyroidism)</t>
+  </si>
+  <si>
+    <t>Recipe URL</t>
+  </si>
+  <si>
+    <t>Cheesy Pepper Rice ( Jain International Recipe)</t>
+  </si>
+  <si>
+    <t>For The Rice
+3 tbsp oil
+1 1/2 cups uncooked rice (chawal)
+salt to taste
+Other Ingredients
+4 whole dry kashmiri red chillies
+2 tbsp oil
+1/2 cup thinly sliced capsicum(red, green, yellow)
+salt to taste
+2 tbsp grated processed cheese
+For The Garnish
+2 tbsp grated processed cheese</t>
+  </si>
+  <si>
+    <t>20 mins</t>
+  </si>
+  <si>
+    <t>15 mins</t>
+  </si>
+  <si>
+    <t>Method
+For the rice
+Wash and soak the rice for 30 minutes and drain well.
+Heat the oil in a kadhai, add the rice and sauté on a medium flame for 2 to 3 minutes.
+Add 3 cups of hot water and salt, mix well and cook on a medium flame for 8 to 10 minutes or till the rice is cooked, while stirring occasionally. Drain out any excess water if remaining.
+How to proceed
+Roast the red chillies in a non-stick pan for a few minutes. Remove from the frying pan and pound in a mortar-pestle (khalbatta) to a coarse powder.
+Heat the oil in a kadhai, add the capsicum and sauté for 2 to 3 minutes.
+Add the prepared red chilli powder and sauté for 1 to 2 minutes.
+Add the cooked rice and mix well.
+Add the salt, mix well and cook for 1 minute.
+Add the cheese, mix well and cook for 1 more minute.
+Serve immediately garnished with cheese.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 395 cal
+Protein 5.3 g
+Carbohydrates 47.8 g
+Fiber 0.4 g
+Fat 20.2 g
+Cholesterol 4.5 mg
+Sodium 60.6 mg
+Click here to view calories for Cheesy Pepper Rice ( Jain International Recipe)</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cheesy-pepper-rice--jain-international-recipe-8629r</t>
+  </si>
+  <si>
+    <t>Manchow Soup ( Jain International Recipes)</t>
+  </si>
+  <si>
+    <t>4 1/2 cups clear vegetable stock , refer handy tip
+1/4 cup finely chopped tomatoes
+1/4 cup finely chopped capsicum
+2 tbsp finely chopped cauliflower
+1/4 cup finely chopped cabbage
+1/4 tsp dried ginger (soonth) powder
+1 tbsp finely chopped fresh mint leaves (phudina)
+1 tbsp chopped coriander (dhania)
+3 tsp soy sauce
+2 tbsp cornflour dissolved in 1/2 cup
+1 tbsp oil
+salt and to taste
+For The Garnish
+1 tbsp chilli oil , refer handy tip
+1 tbsp chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>10 mins</t>
+  </si>
+  <si>
+    <t>Method
+Heat the oil in a wok over a high flame. Add the vegetables, dry ginger powder and stir-fry for 2 to 3 minutes over a high flame.
+Add the stock, mint, coriander, soya sauce, salt and pepper.
+Add the cornflour mixture and simmer for 1 minute.
+Serve hot garnished with chilli oil and coriander.
+Clear vegetable stock can be prepared by boiling vegetables like cauliflower, celery and cabbage along with whole cloves, cinnamon and bayleaf in a vesselful of water for about 30 minutes and then straining and discarding the vegetables.
+Tips
+Chill oil is made by heating oil, adding dried red chillies to it, keeping aside for sometime and then discarding the chillies.</t>
+  </si>
+  <si>
+    <t>Nutrient values per serving
+Energy 87 cal
+Protein 1.7 g
+Carbohydrates 11 g
+Fiber 2.2 g
+Fat 4.2 g
+Cholesterol 0 mg
+Vitamin A 531.3 mcg
+Vitamin B1 0.2 mg
+Vitamin B2 0.1 mg
+Vitamin B3 1 mg
+Vitamin C 25.6 mg
+Folic Acid 25.5 mcg
+Calcium 73 mg
+Iron 1.7 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 266.3 mg
+Potassium 86.7 mg
+Zinc 0.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/manchow-soup--jain-international-recipes-8625r</t>
+  </si>
+  <si>
+    <t>American Chopsuey, Jain Recipe</t>
+  </si>
+  <si>
+    <t>For The Sauce
+2 tbsp vinegar
+1/4 cup sugar
+1 tbsp cornflour
+1/4 cup Jain tomato ketchup
+2 tbsp chilli sauce
+1 tsp soy sauce
+salt to taste
+Other Ingredients
+2 tbsp oil
+1 cup shredded cabbage
+1 cup thinly sliced coloured capsicum
+1/2 cup diagonally cut baby corn
+1/2 cup diagonally cut french beans
+salt to taste
+3/4 cup boiled noodles
+3 cups fried noodles</t>
+  </si>
+  <si>
+    <t>13 mins</t>
+  </si>
+  <si>
+    <t>25 mins</t>
+  </si>
+  <si>
+    <t>Method
+For the sauce
+Combine all the ingredients along with 1½ cups of water in a sauce pan, mix well and cook on a medium flame for 5 to 6 minutes, while stirring continuously. Keep aside.
+How to proceed
+Heat the oil in a broad non-sick pan, add all the vegetables and salt, mix well and cook on a high flame for 4 to 5 minutes, while stirring occasionally.
+Add the prepared sauce and boiled noodles, mix well and cook on a medium flame for 2 minutes, while stirring continuously.
+Spread the fried noodles in a serving deep dish, and pour the prepared vegetable mixture evenly over it.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Accompaniments
+Fried Wontons 
+Sizzling Wontons with Sweet and Sour Vegetables 
+Stuffed Mushroom Buns, Baked Chinese Mushroom Buns 
+Nutrient values per serving
+Energy 719 cal
+Protein 13.6 g
+Carbohydrates 86.2 g
+Fiber 2.3 g
+Fat 36.6 g
+Cholesterol 0 mg
+Vitamin A 496.6 mcg
+Vitamin B1 0.3 mg
+Vitamin B2 0.1 mg
+Vitamin B3 0.5 mg
+Vitamin C 70.7 mg
+Folic Acid 25.1 mcg
+Calcium 24.6 mg
+Iron 0.8 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 618.5 mg
+Potassium 66.1 mg
+Zinc 0.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/american-chopsuey--jain-recipe-8630r</t>
+  </si>
+  <si>
+    <t>Creamy Corn Pizza ( Jain International)</t>
+  </si>
+  <si>
+    <t>Creamy Corn Pizza ( Jain International) recipe</t>
+  </si>
+  <si>
+    <t>4 pizza base 200 mm. (8")
+1 recipe italian tomato ketchup
+2 cups grated mozzrella cheese
+butter or for greasing
+To Be Mixed Into A Corn Pesto Sauce
+1 cup canned cream style corn
+1/2 recipe pesto
+salt to taste
+For The Topping
+1 cup blanched baby corn pieces
+1 cup blanched asparagus pieces
+salt to taste</t>
+  </si>
+  <si>
+    <t>40 mins</t>
+  </si>
+  <si>
+    <t>Method
+How to proceed
+Place one pizza base on a greased baking tray.
+Spread ¼th the italian tomato sauce on it followed by ¼th the corn pesto sauce.
+Top with ¼th cup of baby corn and ¼th cup of asparagus and finally half the cheese. Sprinkle some salt on top.
+Bake in a pre-heated oven at 200°c (400°f) for 10 to 15 minutes or till the base is evenly browned and the cheese melts.
+Repeat with the remaining ingredients to make 3 more pizzas.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Nutrient values per serving
+Energy 493 cal
+Protein 21.3 g
+Carbohydrates 59.1 g
+Fiber 3.8 g
+Fat 20.9 g
+Cholesterol 23 mg
+Vitamin A 476.5 mcg
+Vitamin B1 0.3 mg
+Vitamin B2 0.1 mg
+Vitamin B3 1.6 mg
+Vitamin C 45.6 mg
+Folic Acid 49.6 mcg
+Calcium 302.2 mg
+Iron 2.4 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 821.5 mg
+Potassium 317.3 mg
+Zinc 0.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/creamy-corn-pizza---jain-international-8635r</t>
+  </si>
+  <si>
+    <t>Jain vegetable fried rice | jain veg Chinese fried rice | no onion, garlic Jain rice |</t>
+  </si>
+  <si>
+    <t>Vegetable Fried Rice (Jain) recipe, How to make Jain fried rice, Jain food</t>
+  </si>
+  <si>
+    <t>1/2 cup sliced capsicum (red , yellow and green)
+1/2 cup diagonally cut and blanched babycorn
+1/4 cup diagonally cut and blanched french beans
+1/2 cup shredded cabbage
+3 cups cooked long grained rice (basmati)
+2 tbsp oil
+1 tsp soy sauce
+1 tbsp chilli sauce
+salt and to taste</t>
+  </si>
+  <si>
+    <t>6 mins</t>
+  </si>
+  <si>
+    <t>Method
+Heat the oil in a deep non-stick pan, add the capsicum and sauté on a medium flame for 1 minute.
+Add the babycorn and french beans and sauté on a medium flame for 1 to 2 minutes.
+Add the cabbage and sauté on a medium flame for 1 minute.
+Add the soya sauce and chilli sauce and mix well.
+Add the cooked rice, salt and pepper, mix well and cook on medium flame for 2 minutes, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/vegetable-fried-rice--jain--8631r</t>
+  </si>
+  <si>
+    <t>Corn Chips with Salsa and Avocado Dip, Jain Salsa</t>
+  </si>
+  <si>
+    <t>Corn Chips with Salsa and Avocado Dip, Jain Salsa recipe</t>
+  </si>
+  <si>
+    <t>For The Corn Chips
+5 tbsp maize flour (makai ka atta)
+2 1/2 tbsp plain flour (maida)
+1 tsp oil
+1/8 tsp carom seeds (ajwain)
+1/4 tsp dried oregano
+salt to taste
+plain flour (maida) for rolling
+oil for deep-frying
+For The Uncooked Salsa
+1 cup deseeded and finely chopped tomatoes
+2 tbsp finely chopped capsicum
+1/4 cup finely chopped coriander (dhania)
+1/2 tsp finely chopped green chillies
+1/2 tsp cumin seeds (jeera) powder
+1/4 tsp dried oregano
+salt to taste
+To Be Mixed Into An Avocado Dip
+1 cup mashed ripe avocado
+1 tsp lemon juice
+2 tbsp chopped tomatoes
+1/2 tsp chopped green chillies
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+For the corn chips
+Combine all the ingredients in a deep bowl, mix well and knead into a soft dough using enough water.
+Divide the dough into 2 equal portions.
+Roll a portion into a 200 mm. (8”) diameter circle using a little plain flour for rolling and prick it evenly with a fork.
+Cut into equal 16 triangles and keep aside.
+Heat the oil in a deep non-stick pan and deep-fry, a few chips at a time, on a medium flame till they turn crisp and golden brown in colour from both the sides. Drain on an absorbent paper.
+Repeat steps 3 to 5 to make more chips.
+Cool and store in an air-tight container.
+For the uncooked salsa
+Combine all the ingredients together in a deep bowl and mash it slightly using the back of a spoon. Keep aside.
+How to serve
+Serve the corn chips with uncooked salsa and avocado dip.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 291 cal
+Protein 2.6 g
+Carbohydrates 12.6 g
+Fiber 1.6 g
+Fat 25.6 g
+Cholesterol 0 mg
+Sodium 7.9 mg
+Click here to view calories for Corn Chips with Salsa and Avocado Dip, Jain Salsa</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/corn-chips-with-salsa-and-avocado-dip-jain-salsa-8618r</t>
+  </si>
+  <si>
+    <t>cottage cheese cutlet recipe | Jain paneer rice cutlet | Indian paneer starter | Jain paneer tikki |</t>
+  </si>
+  <si>
+    <t>Cottage Cheese Cutlets, Jain Paneer Cutlets, Tikki recipe</t>
+  </si>
+  <si>
+    <t>For Cottage Cheese Cutlets
+2 cups grated paneer (cottage cheese)
+1/2 cup cooked rice (chawal)
+salt to taste
+1 1/2 tsp chopped green chillies
+1/4 cup plain flour (maida)
+1/4 cup finely chopped coriander (dhania)
+1/2 cup finely chopped capsicum
+bread crumbs for rolling
+4 tsp oil for greasing and cooking
+For Serving With Cottage Cheese Cutlets
+tomato ketchup</t>
+  </si>
+  <si>
+    <t>Method
+For cottage cheese cutlets
+To make cottage cheese cutlets, combine the paneer, rice, salt, green chillies and plain flour in a bowl and mix well.
+Add the coriander and capsicum and mix well.
+Divide the mixture into 8 equal portions and roll each portion between the palms of your hands to make a flat round cutlet.
+Roll the cutlets in bread crumbs till they are evenly coated from both the sides.
+Heat a non-stick tava (griddle) and lightly grease it using oil. Cook the cutlets on it using a little oil till brown spots appear on both the sides.
+Serve the cottage cheese cutlets immediately with tomato ketchup.</t>
+  </si>
+  <si>
+    <t>Accompaniments
+Green Tomato Salsa, Diabetic Friendly 
+Herbed Tomato Dip 
+Nutrient values per serving
+Energy 199 cal
+Protein 6.2 g
+Carbohydrates 13.4 g
+Fiber 0.3 g
+Fat 13.4 g
+Cholesterol 0 mg
+Vitamin A 260.5 mcg
+Vitamin B1 -0.3 mg
+Vitamin B2 -0.3 mg
+Vitamin B3 -0.1 mg
+Vitamin C 12.5 mg
+Folic Acid 0.2 mcg
+Calcium 172.4 mg
+Iron 0.3 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 0.8 mg
+Potassium 6.5 mg
+Zinc 0.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cottage-cheese-cutlet-jain-paneer-cutlet-8617r</t>
+  </si>
+  <si>
+    <t>Sweet Corn and Asparagus Soup ( Jain Recipe)</t>
+  </si>
+  <si>
+    <t>1 1/2 cups coarsely crushed sweet corn kernels (makai ke dane)
+1/4 cup chopped asparagus
+1 tsp butter
+1/2 tsp finely chopped green chillies
+salt and freshly ground black pepper (kalimirch) to taste</t>
+  </si>
+  <si>
+    <t>Method
+Heat the butter in a deep non-stick pan, add the corn, asparagus and sauté on a medium flame for 2 minutes.
+Add the green chillies, 2 ½ cups of water, salt and pepper, mix well and cook on a medium flame for 4 minutes, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Nutrient values per serving
+Energy 67 cal
+Protein 2.3 g
+Carbohydrates 15.4 g
+Fiber 1.6 g
+Fat 0.7 g
+Cholesterol 0 mg
+Vitamin A 36.2 mcg
+Vitamin B1 0.1 mg
+Vitamin B2 0.1 mg
+Vitamin B3 0.1 mg
+Vitamin C 2.3 mg
+Folic Acid 17.7 mcg
+Calcium 3 mg
+Iron 0.4 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 9.9 mg
+Potassium 113.3 mg
+Zinc 0.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/sweet-corn-and-asparagus-soup--jain-recipe-8619r</t>
+  </si>
+  <si>
+    <t>Cream Of Broccoli Soup ( Jain International Recipe)</t>
+  </si>
+  <si>
+    <t>1/2 cup chopped broccoli stalks
+1 cup chopped broccoli florets
+2 tsp fresh cream
+2 tbsp butter
+1 tbsp plain flour (maida)
+1 1/2 cups milk
+1/8 tsp nutmeg (jaiphal) powder
+salt and to taste</t>
+  </si>
+  <si>
+    <t>Method
+Since broccoli comes in a tree like shape, you have to remove the larger stalk and keep only the florets and the small stalks that are attached to it.
+To make cream of broccoli soup, heat 1 tbsp of butter in a deep non-stick pan, add the broccoli stalks and sauté on a medium flame for 2 minutes.
+We prefer to sauté the broccoli stalks before the broccoli florets because they take more time to cook in comparison to the florets and since we have to blend them into a smooth puree at a later stage, it is important for them to be well cooked for the cream of broccoli soup to be smooth and not gra
+Add the broccoli florets, mix well and cook on a medium flame for 4 minutes, while stirring occasionally. It is very important that the broccoli does not brown as it will not give a vibrant green color to our broccoli soup.
+Cool slightly and transfer the broccoli stalks and florets in a mixer.
+Add ½ cup of water to the same mixer.
+Blend till you get a smooth puree. Keep aside.
+Heat the remaining butter in the same deep non-stick pan, add the plain flour and mix using a whisk on a medium flame for 30 seconds, making sure that there is no discolouration.
+Add the milk, mix well using a whisk and cook on a medium flame for 4 to 5 minutes, while stirring continuously to avoid lumps.
+The combination of butter, plain four and milk when cooked in the ratio of 1 tbsp : 1 tbsp : 1 cup, results in a silky smooth thick sauce, but since this is a soup, we did not want to make the milk base very thick and hence took a little more milk to make the base thinner but still provide the same creaminess
+Add the broccoli purée, nutmeg powder, salt, freshly ground black pepper and 1 cup of water, mix well and cook on a medium flame for 3 to 4 minutes, while stirring occasionally.
+Switch off the flame. Add the fresh cream and mix well.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 154 cal
+Protein 4.4 g
+Carbohydrates 6.7 g
+Fiber 0.4 g
+Fat 10.6 g
+Cholesterol 27 mg
+Sodium 67.6 mg
+Click here to view calories for Cream Of Broccoli Soup ( Jain International Recipe)</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cream-of-broccoli-soup--jain-international-recipe-8624r</t>
+  </si>
+  <si>
+    <t>Creamy Almond Soup ( Jain International Recipe)</t>
+  </si>
+  <si>
+    <t>1/4 cup almonds (badam)
+2 cups bottle gourd (doodhi / lauki) , cut into small pieces
+1 tsp cornflour dissolved in 2 tbsp water
+4 to 5 drops almond essence
+1 cup milk
+2 tbsp oil
+salt and to taste
+For The Garnish
+1/4 cup fresh cream</t>
+  </si>
+  <si>
+    <t>Method
+Soak the almonds in hot water for 10 minutes and remove their skins. Take a few aside for the garnish and thinly slice and roast them on a tava (griddle) or in an oven until crisp. Keep aside.
+Heat the oil in a pressure cooker. Add the white pumpkin, the remaining almonds, 3 cups of water and salt and pressure cook for 2 whistles.
+When cooked, blend into purée, add the cornflour mixture, almond essence, salt, pepper and milk.
+Bring to a boil and then simmer for some time till the soup thickens.
+Fill the bowl with the soup and garnish with cream and roasted almond slices
+Serve hot.
+Tips
+VARIATION: CREAMY PISTACHIO SOUP
+Use pistachios instead of almonds to make a Creamy Pistachio Soup.</t>
+  </si>
+  <si>
+    <t>Nutrient values per serving
+Energy 178 cal
+Protein 3.7 g
+Carbohydrates 5.4 g
+Fiber 1.3 g
+Fat 14.5 g
+Cholesterol 0 mg
+Vitamin A 147.5 mcg
+Vitamin B1 0.1 mg
+Vitamin B2 0.1 mg
+Vitamin B3 0.6 mg
+Vitamin C 0.5 mg
+Folic Acid 5.7 mcg
+Calcium 131.7 mg
+Iron 0.8 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 10.5 mg
+Potassium 94.8 mg
+Zinc 0.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/creamy-almond-soup--jain-international-recipe-8621r</t>
+  </si>
+  <si>
+    <t>Garden Fresh Fusilli ( Jain)</t>
+  </si>
+  <si>
+    <t>Garden Fresh Fusilli ( Jain) recipe</t>
+  </si>
+  <si>
+    <t>2 cups cooked fusilli
+1 tbsp butter
+1 tbsp olive oil
+1 tsp finely chopped green chillies
+3/4 cup paneer (cottage cheese) , cubed
+salt to taste
+1 tsp dried oregano
+1/4 cup finely chopped fresh parsley
+1/2 cup finely chopped fresh basil leaves
+1/2 cup milk
+1/4 cup fresh cream
+1/2 tsp freshly ground black pepper
+For The Garnish
+2 tbsp grated processed cheese
+1 tbsp finely chopped fresh parsley
+1/4 tsp dry red chilli flakes</t>
+  </si>
+  <si>
+    <t>5 mins</t>
+  </si>
+  <si>
+    <t>Method
+Heat the butter and olive oil in a non-stick pan, add the green chillies, mix well and sauté on a medium flame for 30 seconds.
+Add the paneer and a little salt, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Add the oregano, parsley, basil, milk and cream, mix well and cook on a medium flame for 1 minute, while stirring continuously.
+Add the fusilli and salt, mix well and cook on a medium flame for 1 minute, while stirring continuously.
+Serve hot garnished with cheese, parsley and chilli flakes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accompaniments
+Baked Bread Rolls 
+Cheesy Bread Strips 
+Cheesy Garlic Pull Apart French Bread 
+Garlic Bread, Baked Garlic Bread 
+Whole Wheat Bread Rolls </t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/garden-fresh-fusilli--jain-8637r</t>
+  </si>
+  <si>
+    <t>Jain Pav Bhaji (using Raw Bananas)</t>
+  </si>
+  <si>
+    <t>Jain Pav Bhaji (using Raw Bananas) recipe</t>
+  </si>
+  <si>
+    <t>For The Red Chilli Paste
+5 whole dry kashmiri red chillies
+For The Bhaji
+3/4 cup boiled , peeled and mashed raw bananas
+2 tbsp butter
+1/2 cup chopped capsicum
+2 cups finely chopped tomatoes
+2 tsp chilli powder
+2 tbsp pav bhaji masala
+salt to taste
+3/4 cup boiled green peas
+2 tbsp finely chopped coriander (dhania)
+For The Garnish
+4 lemon wedges
+1 tbsp chopped coriander (dhania)
+For Serving
+6 laadi pavs , buttered and toasted
+12 tomato slices</t>
+  </si>
+  <si>
+    <t>17 mins</t>
+  </si>
+  <si>
+    <t>Method
+For the red chilli paste
+Soak the kashmiri dry red chillies in a small bowl with enough warm water for 30 minutes. Drain well.
+Combine the soaked kashmiri red chillies with 2½ tbsp of water in a mixer and blend to a smooth paste. Keep aside.
+For the bhaji
+Heat the butter in a deep non-stick kadhai, add the red chilli paste and sauté on a medium flame for 30 seconds.
+Add the capsicum and sauté on a medium flame for 1 minute.
+Add the tomatoes, chilli powder, pav bhaji masala, salt and ½ cup of water, mix well, mash it lightly using a potato masher and cook on a medium flame for 7 to 8 minutes, while stirring occasionally.
+Add the green peas, raw bananas and ¾ cup of water, mix well, mash well using a potato masher and cook on a medium flame for 5 to 7 minutes, while stirring occasionally.
+Add the coriander and mix well.
+Garnish with lemon and coriander and serve immediately with toasted pav and tomato slices.</t>
+  </si>
+  <si>
+    <t>Nutrient values per serving
+Energy 146 cal
+Protein 4.4 g
+Carbohydrates 16.6 g
+Fiber 5.5 g
+Fat 6.9 g
+Cholesterol 0 mg
+Vitamin A 888.8 mcg
+Vitamin B1 0.2 mg
+Vitamin B2 0.1 mg
+Vitamin B3 0.5 mg
+Vitamin C 72.6 mg
+Folic Acid 41.7 mcg
+Calcium 67.1 mg
+Iron 4.2 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 90.1 mg
+Potassium 273.5 mg
+Zinc 0 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/jain-pav-bhaji--using-raw-bananas-40058r</t>
+  </si>
+  <si>
+    <t>Jain Pav bhaji recipe | Jain Mumbai roadside Pav bhaji | no potato, garlic and onion Pav bhaji |</t>
+  </si>
+  <si>
+    <t>For The Jain Pav Bhaji
+10 to 12 whole dry kashmiri red chillies
+1 tbsp oil
+2 tbsp butter
+1 tbsp cumin seeds (jeera)
+1/2 cup finely chopped capsicum
+2 cups finely chopped tomatoes
+2 tsp chilli powder
+1 1/2 tbsp pav bhaji masala , refer handy tip
+salt to taste
+3/4 cup boiled cauliflower florets
+1/3 cup hara vatana (dried green peas) , soaked , boiled and mashed
+3/4 cup boiled green peas
+2 tbsp finely chopped coriander (dhania)
+For The Pav
+8 ladi pav
+8 tsp butter for cooking
+1 tsp pav bhaji masala
+For The Garnish
+1 tbsp chopped coriander (dhania)
+4 tsp butter
+For Serving With Jain Pav Bhaji
+roasted pappadam
+lemon wedge
+tomato slices</t>
+  </si>
+  <si>
+    <t>27 mins</t>
+  </si>
+  <si>
+    <t>Method
+For the jain pav bhaji
+Deseed and soak the whole dry kashmiri red chillies in 1/3 cup of warm water.
+Drain them after an hour.
+Grind them to a smooth paste using approximately 3 tbsp of water. Keep aside.
+Heat the oil and butter on a large tava (griddle) or in a kadhai and add the cumin seeds.
+When the seeds crackle, add 2 tbsp of red chilli paste and sauté on a medium flame for one minute.
+Add the capsicum and sauté on a medium flame for a minute.
+Add the tomatoes, chilli powder, pav bhaji masala, salt and ½ cup of water, mix well and cook on a medium flame for 5 to 7 minutes or till the oil separates, while mashing continuously with a potato masher.
+Add the cauliflower, mashed hara vatana, green peas, coriander and 1/3 cup of water, mash well using a potato masher and cook on a medium flame for 5 to 7 minutes, while stirring continuously.
+For the pav
+Slit 2 pavs vertically and keep aside.
+Heat a large tava, add 2 tsp of butter and ¼ tsp of pav bhaji masala, mix well and slit open the pavs and place on it.
+Cook on a medium flame till they turn light brown and crisp on both the sides. (add more butter if required).
+How to serve jain pav bhaji
+Place ¼th of the bhaji, 2 pavs, a few tomato slices, a lemon wedge and a papad on a plate.
+Top the jain pav bhaji with 1 tsp of butter and serve immediately garnished with coriander.
+Repeat with the remaining ingredients to make 3 more plates of jain pav bhaji.
+Handy tip :
+Pav bhaji masala is a spice blend, which is readily available under different brand names at most grocery stores.</t>
+  </si>
+  <si>
+    <t>Accompaniments
+Pineapple Sweet Lime Drink 
+Nutrient values (Abbrv) per plate
+Energy 418 cal
+Protein 12.7 g
+Carbohydrates 59.1 g
+Fiber 5.2 g
+Fat 14.5 g
+Cholesterol 30 mg
+Sodium 123.3 mg
+Click here to view calories for Jain Pav Bhaji ( Mumbai Roadside Recipes )</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/jain-pav-bhaji--mumbai-roadside-recipes--33424r</t>
+  </si>
+  <si>
+    <t>Jain Vada Pav</t>
+  </si>
+  <si>
+    <t>Jain Vada Pav recipe</t>
+  </si>
+  <si>
+    <t>For The Vada
+1 1/2 cups boiled , peeled and mashed raw banana
+1/2 tsp turmeric powder (haldi)
+2 tsp finely chopped green chillies
+2 tbsp finely chopped coriander (dhania)
+1/2 tbsp lemon juice
+1 tsp sugar
+salt to taste
+1 tbsp oil
+1/2 tsp mustard seeds ( rai / sarson)
+1/4 tsp asafoetida (hing)
+4 to 6 curry leaves (kadi patta)
+oil for deep-frying
+To Be Mixed Together Into A Batter (using 1/4 Cup Of Water)
+3/4 cup besan (bengal gram flour)
+salt to taste
+Other Ingredients
+6 ladi pavs
+green chutney
+khajur imli ki chutney
+For Serving
+deep fried green chilli</t>
+  </si>
+  <si>
+    <t>Method
+For the vada
+Combine the raw bananas, turmeric powder, green chilies, coriander powder and lemon juice in a deep bowl and mix well.
+Heat the oil in a deep non-stick kadhai and add the mustard seeds.
+When the seeds crackle, add the asafoetida and curry leaves and sauté on a medium flame for a few seconds.
+Add the raw banana mixture, mix well and cook on a medium flame for 2 minutes, while stirring occasionally. Keep aside to cool completely.
+Divide the mixture into 6 equal portions and shape each portion into a round.
+Heat the oil in a deep non-stick kadhai, dip each vada in the prepared batter and deep-fry in hot oil, a few at a time, till they turn golden brown in colour from all the sides. Drain on an absorbent paper and keep aside.
+How to proceed
+Slit a pav horizontally, apply a little green chutney and khajur imli ki chutney on the inner sides of the pav and stuff with a hot vada.
+Repeat with the remaining ingredients to make 5 more vada pavs.
+Serve immediately with deep fried green chillies.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per vada pav
+Energy 253 cal
+Protein 8.1 g
+Carbohydrates 40.5 g
+Fiber 3.4 g
+Fat 6.5 g
+Cholesterol 0 mg
+Sodium 22.4 mg
+Click here to view calories for Jain Vada Pav</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/jain-vada-pav-41443r</t>
+  </si>
+  <si>
+    <t>Jain Pizza Sauce</t>
+  </si>
+  <si>
+    <t>Jain Pizza Sauce recipe</t>
+  </si>
+  <si>
+    <t>2 tsp olive oil
+2 1/2 cups chopped tomatoes
+5 tbsp chopped basil
+1 tsp dried oregano
+1 tsp dry red chilli flakes (paprika)
+2 tsp jain tomato ketchup
+1/2 tsp freshly ground black pepper (kalimirch)
+1/2 tsp chilli powder
+1 tsp sugar
+salt to taste</t>
+  </si>
+  <si>
+    <t>8 mins</t>
+  </si>
+  <si>
+    <t>Method
+Heat the olive oil in a deep non-stick pan, add the tomatoes, mix well and cover with a lid and cook on a medium flame for 3 to 4 minutes, while stirring occasionally.
+Add the basil, mix well and cook on a medium flame for 1 minute.
+Add the oregano, chilli flakes, tomato ketchup, pepper powder, chilli powder, sugar and salt, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Switch off the flame, let it cool completely, transfer to a mixer and blend till coarse.
+Store in an air- tight container in the freezer. Use as required.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per tbsp
+Energy 14 cal
+Protein 0.3 g
+Carbohydrates 1.4 g
+Fiber 0.5 g
+Fat 0.8 g
+Cholesterol 0 mg
+Sodium 5.1 mg
+Click here to view calories for Jain Pizza Sauce</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/jain-pizza-sauce-42616r</t>
+  </si>
+  <si>
+    <t>Ges, Curd Rice Jain Recipe</t>
+  </si>
+  <si>
+    <t>1 cup raw rice (chawal)
+salt to taste
+1 1/4 cups curds (dahi)
+For Serving
+methia no masala</t>
+  </si>
+  <si>
+    <t>2 mins</t>
+  </si>
+  <si>
+    <t>Method
+Soak the rice in enough water for 30 minutes. Drain well.
+Combine the rice, salt and 1½ cups of water in a pressure cooker, mix well and pressure cook for 2 whistles.
+Allow the steam to escape before opening the lid. Keep aside.
+Combine the curds, salt and 2 cups of water in a deep bowl and whisk well.
+Combine the cooked rice and the curd-water mixture into a deep non-stick pan, mix well and cook on a slow flame for 4 to 5 minutes, while stirring occasionally.
+Serve hot with methia no masala.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/ges-curd-rice-jain-recipe-42224r</t>
+  </si>
+  <si>
+    <t>Avocado Dip, Avocado Jain Dip</t>
+  </si>
+  <si>
+    <t>Avocado Dip, Avocado Jain Dip recipe</t>
+  </si>
+  <si>
+    <t>1 cup mashed ripe avocado
+1 tsp lemon juice
+2 tbsp chopped tomatoes
+1/2 tsp chopped green chillies
+salt to taste
+For Serving
+corn chips</t>
+  </si>
+  <si>
+    <t>0 mins</t>
+  </si>
+  <si>
+    <t>Method
+Combine all the ingredients in a deep bowl and mix well.
+Serve with corn chips.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per tbsp
+Energy 31 cal
+Protein 0.3 g
+Carbohydrates 0.3 g
+Fiber 0 g
+Fat 3.3 g
+Cholesterol 0 mg
+Sodium 0.2 mg
+Click here to view calories for Avocado Dip, Avocado Jain Dip</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/avocado-dip-avocado-jain-dip-8651r</t>
+  </si>
+  <si>
+    <t>Fresh Garlic Chutney ( Non- Fried Snacks )</t>
+  </si>
+  <si>
+    <t>Fresh Garlic Chutney ( Non- Fried Snacks ) recipe</t>
+  </si>
+  <si>
+    <t>3/4 cup roughly chopped garlic (lehsun)
+1 tbsp chilli powder
+1 tsp tamarind (imli) pulp
+2 tsp coriander (dhania) powder
+1/2 tbsp lemon juice
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+Combine all the ingredients along with ¼ cup of water in a mixer, mix well and blend to a smooth paste.
+Keep refrigerated and use as required.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per tbsp
+Energy 15 cal
+Protein 0.7 g
+Carbohydrates 2.7 g
+Fiber 0.6 g
+Fat 0 g
+Cholesterol 0 mg
+Sodium 1.1 mg
+Click here to view calories for Fresh Garlic Chutney ( Non- Fried Snacks )</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/fresh-garlic-chutney--non--fried-snacks--33330r</t>
+  </si>
+  <si>
+    <t>Khajur Imli Ki Chutney ( Non- Fried Snacks )</t>
+  </si>
+  <si>
+    <t>Khajur Imli Ki Chutney ( Non- Fried Snacks ) recipe</t>
+  </si>
+  <si>
+    <t>1 cup deseeded dates (khajur)
+2 tbsp deseeded tamarind (imli)
+1/2 cup grated jaggery (gur)
+1/2 tsp chilli powder
+1 tsp cumin seeds (jeera) powder
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+Clean and wash the dates and tamarind.
+Add the jaggery and 1 cup of water and pressure cook for 2 whistles.
+Allow the steam to escape and blend in a mixer to a smooth paste.
+Strain the mixture through a sieve.
+Add 1 cup of water, chilli powder, cumin seeds powder and salt and mix well. Use as required. Store refrigerated.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per tbsp
+Energy 14 cal
+Protein 0.1 g
+Carbohydrates 3.5 g
+Fiber 0.3 g
+Fat 0 g
+Cholesterol 0 mg
+Sodium 0 mg
+Click here to view calories for Khajur Imli Ki Chutney ( Non- Fried Snacks )</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/khajur-imli-ki-chutney--non--fried-snacks--33328r</t>
+  </si>
+  <si>
+    <t>palak til jowar nimki recipe | Indian non fried nimki | healthy Bengali nimki | healthy snack for weight loss |</t>
+  </si>
+  <si>
+    <t>palak til jowar nimki recipe | Indian non fried nimki | healthy Bengali nimki |</t>
+  </si>
+  <si>
+    <t>For Palak Til Jowar Nimki
+1/2 cup finely chopped spinach (palak)
+1 tbsp sesame seeds (til)
+1/2 cup jowar (white millet) flour
+1/2 cup whole wheat flour (gehun ka atta)
+1 tsp oil
+salt to taste
+whole wheat flour (gehun ka atta) for rolling
+1/4 tsp oil for greasing</t>
+  </si>
+  <si>
+    <t>Method
+For palak til jowar nimki
+To make palak til jowar nimki, combine all the ingredients in a deep bowl and knead into a semi-stiff dough using enough water.
+Divide the dough into 5 equal portions.
+Roll out a portion of the dough into a 140 mm. (5. 5”) diameter thin circle using a little whole wheat flour for rolling.
+Cut it into 7 equal sized strips and keep aside.
+Repeat step 3 to make 28 more strips with the remaining 4 dough portions.
+Place half the strips on a greased baking tray and bake in a pre-heated oven at 180ºc (360ºf) for 18 minutes, turning the strips at 9 minutes. Bake till the bread sticks are crisp and golden brown in colour from both the sides.
+Cool completely and serve or store in an air-tight container.</t>
+  </si>
+  <si>
+    <t>Accompaniments
+Apple Tea, Lebanese Apple Tea 
+Fruity Iced Tea 
+Honey Ginger Tea for Cold and Cough 
+Nutrient values (Abbrv) per serving
+Energy 102 cal
+Protein 3.1 g
+Carbohydrates 17.2 g
+Fiber 3 g
+Fat 2.5 g
+Cholesterol 0 mg
+Sodium 7.5 mg
+Click here to view calories for Palak Til Jowar Nimki, Non Fried Bengali Nimki</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/palak-til-jowar-nimki-non-fried-bengali-nimki-37779r</t>
+  </si>
+  <si>
+    <t>Whipped Cream Using Non-dairy Cream ( Cakes and Pastries)</t>
+  </si>
+  <si>
+    <t>Whipped Cream Using Non-dairy Cream ( Cakes and Pastries) recipe</t>
+  </si>
+  <si>
+    <t>400 gms non-dairy whipping cream</t>
+  </si>
+  <si>
+    <t>Method
+Defrost the cream pour into the bowl and beat until it doubles in volume and forms soft peaks.
+Keep aside as use as required.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per tbsp
+Energy 22 cal
+Protein 0.1 g
+Carbohydrates 1.9 g
+Fiber 0 g
+Fat 1.6 g
+Cholesterol 0 mg
+Sodium 2.1 mg
+Click here to view calories for Whipped Cream Using Non-dairy Cream ( Cakes and Pastries)</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/whipped-cream-using-non-dairy-cream--cakes-and-pastries-36912r</t>
+  </si>
+  <si>
+    <t>Corn and Potato Handvo with Coconut Sauce ( Non- Fried Snacks )</t>
+  </si>
+  <si>
+    <t>Corn and Potato Handvo with Coconut Sauce ( Non- Fried Snacks ) recipe</t>
+  </si>
+  <si>
+    <t>For The Coconut Sauce
+1 tsp oil
+1/2 tsp cumin seeds (jeera)
+a few curry leaves (kadi patta)
+1/2 tsp green chilli paste
+1 cup thick coconut milk
+1/4 tsp sugar
+salt to taste
+2 to 3 drops of lemon juice
+1 tbsp finely chopped coriander (dhania)
+To Be Mixed Together Into Corn and Potato Mixture
+1 cup boiled and crushed sweet corn kernels , coarsely crushed
+1/2 cup boiled and mashed potatoes
+3/4 cup chopped and boiled mixed vegetables (french beans ,cauliflower and green peas)
+1/2 cup cooked rice (chawal) , slightly mashed
+1/4 cup semolina (rava)
+1/2 cup finely chopped coriander (dhania)
+1 tsp finely chopped green chillies
+2 tsp lemon juice
+1 tsp sugar
+salt to taste
+2 tbsp water
+Other Ingredients
+oil for greasing
+1 tbsp oil
+1 tsp mustard seeds ( rai / sarson)
+2 tsp sesame seeds (til)
+a pinch of asafoetida (hing)</t>
+  </si>
+  <si>
+    <t>Method
+For the coconut sauce
+Heat the oil in a small non-stick pan and add the cumin seeds.
+When the seeds crackle, add the curry leaves and green chilli paste, mix well and sauté on a slow flame for a minute, while stirring continuously.
+Add the coconut milk, sugar, salt, lemon juice and coriander and simmer for another 4 to 5 minutes, while stirring continuously. Keep aside.
+How to proceed
+Heat the oil in a broad non-stick pan and add the mustard seeds.
+When the seeds crackle, add the sesame seeds and asafoetida and sauté for a few seconds.
+Pour the batter evenly to make a thick layer.
+Cover and cook on a slow flame for 7 to 8 minutes or till the base turns golden brown in colour and crisp.
+Lift the handvo gently using 2 large flat spoons and turn it over to the other side.
+Cover and cook on a slow flame for another 5 to 7 minutes or till it turns golden brown in colour.
+Cut into wedges as shown in the image.
+Serve immediately with coconut sauce.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 213 cal
+Protein 3.4 g
+Carbohydrates 27.7 g
+Fiber 2.4 g
+Fat 10.2 g
+Cholesterol 0 mg
+Sodium 10 mg
+Click here to view calories for Corn and Potato Handvo with Coconut Sauce ( Non- Fried Snacks )</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/corn-and-potato-handvo-with-coconut-sauce--non--fried-snacks--33315r</t>
+  </si>
+  <si>
+    <t>Moong Dal Handvo ( Non- Fried Snacks )</t>
+  </si>
+  <si>
+    <t>Moong Dal Handvo ( Non- Fried Snacks ) recipe, Farsan Handvo Recipe</t>
+  </si>
+  <si>
+    <t>1 cup yellow moong dal (split yellow gram)
+2 tbsp semolina (rava)
+1/2 cup grated carrot
+2 tbsp curds (dahi)
+1/2 tsp sugar
+2 tsp ginger-green chilli paste
+2 tbsp finely chopped coriander (dhania)
+salt to taste
+2 tsp fruit salt
+2 tsp oil
+1/2 tsp mustard seeds ( rai / sarson)
+1 tsp sesame seeds (til)
+1/2 tsp asafoetida (hing)
+For Serving
+green chutney</t>
+  </si>
+  <si>
+    <t>14 mins</t>
+  </si>
+  <si>
+    <t>Method
+Clean, wash and soak the yellow moong dal in enough water in a deep bowl for 3 hours. Drain well and blend in a mixer to a smooth paste without using water.
+Combine the moong dal paste, semolina, carrots, curds, sugar, ginger-green chilli paste, coriander and salt together in a deep bowl and mix well to make a batter.
+Just before cooking, add the fruit salt and add 2 tbsp of water over it.
+When the bubbles form, mix gently.
+Heat the oil in a non-stick kadhai and add the mustard seeds.
+When the seeds crackle, add the sesame seeds and asafoetida and sauté on a medium flame for a few seconds.
+Pour the batter over the tempering and spread it evenly to make a thick layer. Cover with a lid and cook on a slow flame for 7 to 8 minutes or till the base turns crisp and golden brown in colour.
+Turn the handva upside down using a flat plate.
+Slide the handva back into the same kadhai, cover with a lid and cook on a slow flame for another 5 minutes or till it turns golden brown in colour from the other side. Keep aside.
+Cool slightly and cut into equal pieces.
+Serve immediately with green chutney.</t>
+  </si>
+  <si>
+    <t>Nutrient values per serving
+Energy 64 cal
+Protein 1.2 g
+Carbohydrates 6.9 g
+Fiber 0.7 g
+Fat 3.3 g
+Cholesterol 0 mg
+Vitamin A 346.6 mcg
+Vitamin B1 0 mg
+Vitamin B2 0 mg
+Vitamin B3 0.2 mg
+Vitamin C 2.4 mg
+Folic Acid 2.4 mcg
+Calcium 35.7 mg
+Iron 0.3 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 7.5 mg
+Potassium 30.3 mg
+Zinc 0.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/moong-dal-handvo--non--fried-snacks--33312r</t>
+  </si>
+  <si>
+    <t>Stuffed Patties ( Non- Fried Snacks )</t>
+  </si>
+  <si>
+    <t>Stuffed Patties ( Non- Fried Snacks ) recipe</t>
+  </si>
+  <si>
+    <t>For The Patties
+2 cups boiled and mashed potatoes
+1 tbsp cornflour
+1 tsp finely chopped green chillies
+salt to taste
+For The Stuffing
+2 tsp oil
+1/2 tsp cumin seeds (jeera)
+1/2 cup coarsely ground green peas
+1 tsp ginger-green chilli paste
+2 tsp lemon juice
+2 tsp sugar
+2 tbsp finely chopped coriander (dhania)
+salt to taste
+Other Ingredients
+1 1/2 tsp ghee/ oil for cooking</t>
+  </si>
+  <si>
+    <t>Method
+For the patties
+Combine all the ingredients together and mix well.
+Divide into 6 equal portions and shape each portion into a 50 mm. (2") diameter circle. Keep aside.
+For the stuffing
+Heat the oil in a kadhai and add the cumin seeds.
+When the seeds crackle, add the green peas, ginger-green chilli paste, lemon juice, sugar, coriander and salt and sauté on a medium flame for a few minutes, while stirring continuously.
+Divide the stuffing into 6 equal portions and keep aside.
+How to proceed
+Place one portion of the stuffing in the centre of each circle.
+Bring the sides together in the centre so as to seal the stuffing inside the potato circle.
+Roll the patty between the palms of your hands in such a way that there are no cracks on the surface. Press firmly on top to make flat patty
+Cook on a non-stick tava (griddle) using little oil till both sides turn golden brown in colour.
+Repeat with the remaining ingredients to make 5 more patties. Serve hot.</t>
+  </si>
+  <si>
+    <t>Nutrient values per pattie
+Energy 87 cal
+Protein 1.7 g
+Carbohydrates 13.1 g
+Fiber 1.9 g
+Fat 3.2 g
+Cholesterol 0 mg
+Vitamin A 113.6 mcg
+Vitamin B1 0.1 mg
+Vitamin B2 0 mg
+Vitamin B3 0.6 mg
+Vitamin C 9.1 mg
+Folic Acid 12.3 mcg
+Calcium 13.2 mg
+Iron 0.5 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 5.1 mg
+Potassium 107.3 mg
+Zinc 0.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/stuffed-patties--non--fried-snacks--33326r</t>
+  </si>
+  <si>
+    <t>Vatana Makai Nu Shaak ( Jain Recipe)</t>
+  </si>
+  <si>
+    <t>Vatana Makai Nu Shaak ( Jain Recipe), Jain Recipes</t>
+  </si>
+  <si>
+    <t>3/4 cup boiled green peas
+3/4 cup boiled sweet corn kernels (makai ke dane)
+1 1/2 tsp oil
+1/2 tsp cumin seeds (jeera)
+1/2 cup chopped capsicum
+1/4 cup crushed peanuts
+1/2 cup finely chopped tomatoes
+1 tsp green chilli paste
+1/4 tsp turmeric powder (haldi)
+salt to taste
+1/4 cup freshly grated coconut</t>
+  </si>
+  <si>
+    <t>Method
+Heat the oil in a broad non-stick pan and add the cumin seeds.
+When the seeds crackle, add the capsicum and sauté on a medium flame for 1 minute.
+Add the peanuts, mix well and cook on a medium flame for 30 seconds, while stirring occasionally.
+Add the tomatoes, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
+Add the green peas, corn, green chilli paste, turmeric powder and salt, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
+Add the coconut and ¼ cup of water, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Accompaniments
+Cabbage Kachumber 
+Chaas, Buttermilk Recipe, Salted Chaas Recipe 
+Khatti Meethi Dal, Sweet and Sour Zero Oil Dal 
+Padvali Roti, Gujarati Thin Rotli Recipe 
+Rotlis ( Gujarati Recipe) 
+Vagharela Bhaat, Vagharelo Bhaat From Leftover Rice 
+Nutrient values (Abbrv) per serving
+Energy 149 cal
+Protein 5.6 g
+Carbohydrates 13.4 g
+Fiber 5.1 g
+Fat 8.9 g
+Cholesterol 0 mg
+Sodium 9.2 mg
+Click here to view calories for Vatana Makai Nu Shaak ( Jain Recipe)</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/vatana-makai-nu-shaak---jain-recipe-7537r</t>
+  </si>
+  <si>
+    <t>Vegetable Makhanwala, Jain Recipe</t>
+  </si>
+  <si>
+    <t>Vegetable Makhanwala, Jain Recipe, Jain Recipes</t>
+  </si>
+  <si>
+    <t>For The Tomato Mixture
+1 1/2 cups roughly chopped tomatoes
+3 whole dry kashmiri red chillies , broken into pieces
+2 tbsp broken cashewnuts (kaju)
+Other Ingredients
+1 tbsp butter
+1/4 cup finely chopped cabbage
+3/4 cup diagonally cut and blanched french beans
+3/4 cup diagonally cut and blanched carrot
+1/4 cup boiled green peas
+a pinch of garam masala
+1 tsp sugar
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+For the tomato mixture
+Combine all ingredients in a mixer and blend till smooth. Keep aside.
+How to proceed
+Heat the butter in a deep non-stick pan, add the cabbage and sauté on a medium flame for 1 minute.
+Add the prepared tomato mixture, garam masala, sugar and salt, mix well and cook on a medium flame for 3 minutes, while stirring occasionally.
+Add the vegetables, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Accompaniments
+Parathas, Plain Paratha, Basic Paratha Recipe 
+Spicy Mango Pickle, Mango Pickle with Mustard Oil 
+Varkey Paratha 
+Nutrient values (Abbrv) per serving
+Energy 120 cal
+Protein 3.6 g
+Carbohydrates 12.7 g
+Fiber 4.6 g
+Fat 6 g
+Cholesterol 10 mg
+Sodium 58.9 mg
+Click here to view calories for Vegetable Makhanwala, Jain Recipe</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/vegetable-makhanwala-jain-recipe-7540r</t>
+  </si>
+  <si>
+    <t>Jain Open Burger</t>
+  </si>
+  <si>
+    <t>Jain Open Burger recipe</t>
+  </si>
+  <si>
+    <t>1 baguette
+1 cup eggless mayonnaise
+1/2 cup finely chopped cabbage
+1/2 cup finely chopped capsicum
+1/2 tsp dried oregano
+1/2 tsp dry red chilli flakes (paprika)
+For Patties
+1/2 cup paneer (cottage cheese) (paneer)
+4 boiled and peeled raw bananas
+2 chopped green chillies
+1/2 cup chopped coriander (dhania)
+salt to taste
+1 tsp lemon juice
+oil to shallow fry
+tomato ketchup to garnis</t>
+  </si>
+  <si>
+    <t>30 mins</t>
+  </si>
+  <si>
+    <t>Method
+For Patties
+Mix paneer, 1 green chilly, salt, 1/4 cup coriander, 1/2 tsp lemon juice and 1/2 grated boiled raw banana in a bowl and mix well.
+Divide it into 5 equal balls and keep it aside.
+Grate the remaining raw banana and add rest of lemon juice, green chillies, coriander and salt to taste. Divide the mixture into 5 equal parts.
+Flatten each part of the mixture on your palm and put paneer ball in centre and cover it with banana mixture.
+Repeat the process and make 5 patties.
+Shallow fry the patties on tawa using oil till it turns golden brown on both sides.
+How to proceed
+Combine the ,mayonnaise, cabbage and capsicum in a bowl and mix well.
+Add oregano and chilli flakes to taste.
+Prepare a sauce by mixing mayonnaise, oregano and chilli flakes and keep it aside.
+Cut the french loaf into 5 diagonal slices and apply mayonnaise sauce on it. Grill it in microwave for 3-4 minutes and then put patty on it. Grill it for more 3-4 minutes. Put a tooth pick on it.
+Serve hot with mayonnaise salad and tomato ketchup.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/jain-open-burger-38079r</t>
+  </si>
+  <si>
+    <t>Jain Chocolate Truffle Pudding</t>
+  </si>
+  <si>
+    <t>Jain Chocolate Truffle Pudding recipe</t>
+  </si>
+  <si>
+    <t>2 chocolate cream biscuits
+2 marie biscuits
+1 scoop vanilla ice-cream
+choclate flakes for garnishing
+For The Chocolate Syrup
+1 tsp cocoa powder
+3 tsp powdered sugar
+1/2 cup milk</t>
+  </si>
+  <si>
+    <t>60 mins</t>
+  </si>
+  <si>
+    <t>Method
+For Chocolate Syrup
+Mix all ingredients and heat it on a low flame.
+Bring it to boil and then remove from flame.
+Keep it aside and let it cool for room temperature.
+Hoe to proceed
+Take a transparent stem glass and add 1 broken bon-bon biscuit in the base.
+Add 1 tsp of chocolate syrup to moisten the biscuits.
+Add 1 crushed marie biscuit and again chocolate syrup.
+Add a layer of ice-cream and chocolate syrup.
+Repeat the whole layering.
+Add chocolate sprinkles on top and keep it in the freezer for ice-cream to set.
+Serve chilled.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/jain-chocolate-truffle-pudding-38078r</t>
+  </si>
+  <si>
+    <t>Minti Jain Momos</t>
+  </si>
+  <si>
+    <t>Minti Jain Momos recipe</t>
+  </si>
+  <si>
+    <t>For The Momos Wrapper
+1 cup plain flour (maida)
+1/4 tsp baking powder
+salt to taste
+1 tbsp ghee
+For Stuffing
+1 tbsp ghee
+1 tsp chilli paste
+1/4 cup chopped capsicum
+1/4 cup chopped cabbage
+2 tbsp chopped french beans
+1 tsp freshly ground black pepper powder
+1 tsp chaat masala
+1/4 cup finely chopped mint leaves (phudina)
+1 tsp lemon juice
+1/2 tsp sugar
+salt to taste
+1/4 cup grated paneer (cottage cheese)
+1/4 cup grated processed cheese
+Other Ingredients
+1 tbsp plain flour (maida) mixed with 1 tbsp water</t>
+  </si>
+  <si>
+    <t>Method
+For the momos wrapper
+Sieve the flour, baking powder and salt together in a bowl.
+Add ghee and warm water gradually and knead the dough to a soft dough.
+Keep aside for 30 minutes, covered with a damp muslin cloth.
+Divide the dough into 8 equal portions.
+Roll out each portion into a 75 mm. (3") diameter circle to make a momo wrapper.
+Keep aside, covered with a damp muslin cloth.
+For the stuffing
+Heat the ghee in a pan.
+Add chilly paste, all the vegetables and sauté for few minutes on a medium flame.
+Add the black pepper powder, chat masala, mint, salt, sugar, lime juice, paneer and cheese and mix it well and remove from the flame. Keep aside.
+How to proceed
+Place a momos wrapper on a flat dry surface and put 2 tsp of the stuffing in the centre.
+Apply the flour paste along the edges and fold over to make a semi-circle.
+Pinch at the outer rim.
+Repeat with the remaining momo wrappers and stuffing to make 7 more momos.
+Arrange the momos in a steamer plate and steam for 10 minutes.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/minti-jain-momos-33729r</t>
+  </si>
+  <si>
+    <t>Jain Special- Kele Ke Kofte</t>
+  </si>
+  <si>
+    <t>Jain Special- Kele Ke Kofte recipe</t>
+  </si>
+  <si>
+    <t>For The Koftas
+1/4 tsp chopped ginger (adrak)
+1/4 tsp slit green chillies , chopped
+1/4 tsp cumin seeds (jeera)
+6 raw bananas , boiled
+1/4 tsp asafoetida (hing)
+1/4 tsp garam masala
+salt to taste
+For Gravy
+1/4 tsp cumin seeds (jeera)
+250 gms beaten curds (dahi)
+1/4 tsp asafoetida (hing)
+1/4 tsp chopped ginger (adrak)
+1/4 tsp slit green chillies
+1/4 tsp turmeric powder (haldi)
+1/4 tsp garam masala
+1/4 tsp red chilli powder
+3 to 4 cloves (laung / lavang)
+4 bay leaves
+2 tbsp oil</t>
+  </si>
+  <si>
+    <t>Method
+For the kofte
+Peel and mash the bananas.
+Add all the ingredients and mix well.
+Divide the mixture into small equal sized balls.
+Heat the oil in a kadhai and deep fry the koftas till they turn golden brown and crisp from all the sides.
+Drain on an absorbent paper and keep aside.
+For the gravy
+Heat the oil in a deep pan and add the cloves and cumin seeds.
+When the seeds crackle, add the asafeotida, bay leaf, ginger and green chilli, beaten curd, garam masala, red chilli powder, turmeric and 50 ml water, mix well and cook on a medium flame for 2 minutes or till the gravy is cooked.
+How to proceed
+Add the koftas and simmer for a few minutes.
+Garnish with coriander and serve hot.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/jain-special--kele-ke-kofte-33594r</t>
+  </si>
+  <si>
+    <t>Moong Dal Khandvi ( Non-fried Snacks )</t>
+  </si>
+  <si>
+    <t>Moong Dal Khandvi ( Non-fried Snacks ) recipe</t>
+  </si>
+  <si>
+    <t>1 cup yellow moong dal (split yellow gram) flour
+1 cup curds (dahi)
+2 tsp ginger-green chilli paste
+1/4 tsp pinch turmeric powder (haldi)
+1/4 tsp asafoetida (hing)
+salt to taste
+1 tbsp oil
+1 tsp mustard seeds ( rai / sarson)
+1 tsp sesame seeds (til)
+1/4 tsp asafoetida (hing)
+Other Ingredients
+oil for greasing
+For The Garnish
+2 tbsp chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>Method
+Combine the moong dal flour, curds, ginger-green chilli paste, turmeric powder, asafoetida, salt and ¼ cup of water in a deep non-stick pan and mix very well.
+Cook on a slow flame, while stirring continuously till it becomes thick (approx. 4 to 5 minutes).
+Spread a spoonful of the batter on a greased thali and wait for a few seconds and try to roll up, if it doesn’t then cook for few more minutes, check once more till done.
+Divide the batter into two equal portions.
+Spread each portion on reverse greased side of 2 thalis (approximately 10" in diameter) evenly to make a thin uniform layer using a spatula while the batter is still hot.
+When cool, cut the khandvi on each thali lengthwise (approx. 1½" in width) into equal portions (as shown in the image) and roll up each gently.
+Repeat with the remaining thali and place khandvis in a serving plate. Keep aside.
+For the tempering, heat the oil in a pan and add the mustard seeds.
+When they crackle, add the sesame seeds and asafoetida and pour it over the khandvis.</t>
+  </si>
+  <si>
+    <t>Accompaniments
+Green Chutney, How To Make Green Chutney Recipe 
+Tomato Garlic Chutney, Tamatar Lehsun ki Chutney 
+Nutrient values (Abbrv) per serving
+Energy 268 cal
+Protein 12 g
+Carbohydrates 26.6 g
+Fiber 3.4 g
+Fat 11.4 g
+Cholesterol 8 mg
+Sodium 20.4 mg
+Click here to view calories for Moong Dal Khandvi ( Non-fried Snacks )</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/moong-dal-khandvi--non-fried-snacks--33288r</t>
+  </si>
+  <si>
+    <t>Stuffed Khandvi ( Non- Fried Snacks )</t>
+  </si>
+  <si>
+    <t>Stuffed Khandvi ( Non- Fried Snacks ) recipe</t>
+  </si>
+  <si>
+    <t>For The Green Peas Stuffing Or Corn Stuffing
+1 tsp oil
+1/2 cup green peas , coarsely ground or boiled and crushed white corn (makai ke dane)
+1/2 tsp sugar
+salt to taste
+1 tsp ginger-green chilli paste
+1/2 tsp lemon juice
+2 tbsp finely chopped coriander (dhania)
+For The Khandvi
+1 cup besan (bengal gram flour)
+1 cup fresh curds (dahi) mixed with 1 1/2 cups of
+2 to 3 drops of lemon juice
+2 tsp ginger-green chilli paste
+1/4 tsp turmeric powder (haldi)
+a pinch of asafoetida (hing)
+salt to taste
+1/4 tsp oil for greasing
+1 tbsp oil
+1 tsp mustard seeds ( rai / sarson)
+1 tsp sesame seeds (til)
+1/4 tsp asafoetida (hing)
+5 to 6 curry leaves (kadi patta)
+1/2 tsp finely chopped green chillies (optional)
+For The Garnish
+2 tbsp freshly grated coconut
+2 tbsp finely chopped coriander (dhania)
+Variation
+1/2 cup crumbled paneer (cottage cheese)
+1 tbsp schezuan sauce</t>
+  </si>
+  <si>
+    <t>Method
+For the stuffing
+Heat the oil in a non-stick pan, add the green peas / corn and sauté on a slow flame for 3 to 4 minutes, while stirring continuously.
+Add the sugar, salt, ginger-green chilli paste, lemon juice, coriander and 1 tbsp of water, mix well and sauté on a medium flame for another 2 minutes. Keep aside to cool.
+For the khandvi
+Combine the besan, curds-water mixture, lemon juice, ginger-green chilli paste, turmeric powder, asafoetida and salt together in a deep non-stick pan and mix well to make a smooth batter (taking care no lump remains).
+Cook on a slow flame, while stirring continuously till it becomes thick (approx. 8 to 10 minutes).
+Spread a spoonful of the batter on a greased thali and wait for a few seconds and try to roll up, if it doesn’t then cook for few more minutes, check once more till done.
+Divide the batter into two equal portions. Spread each portion on reverse greased side of 2 thalis (approximately 10" in diameter) evenly to make a thin uniform layer using a spatula while the batter is still hot.
+After spreading the mixture on on a thali, spread the prepared stuffing evenly over it.
+When cool, cut the khandvi on each thali lengthwise (approx. 1½" in width) into equal portions (as shown in the image) and roll up each gently.
+Repeat with the remaining thali and place khandvis in a serving plate. Keep aside.
+For the tempering, just before serving heat the oil in a small non-stick pan and add the mustard seeds.
+When the seeds crackle, add the sesame seeds, asafoetida, curry leaves and green chillies and sauté on a medium flame for a few seconds, while stirring continuously.
+Pour the tempering over the khandvis. Serve immediately garnished with coconut and coriander.
+Variation
+To be mixed togeather to make a stuffing</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 346 cal
+Protein 14.7 g
+Carbohydrates 32.6 g
+Fiber 8 g
+Fat 16.2 g
+Cholesterol 8 mg
+Sodium 41.9 mg
+Click here to view calories for Stuffed Khandvi ( Non- Fried Snacks )</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/stuffed-khandvi--non--fried-snacks--33287r</t>
+  </si>
+  <si>
+    <t>Laksa Soup – Vegetarian Malaysian Coconut Curry Soup</t>
+  </si>
+  <si>
+    <t>Laksa Soup – Vegetarian Malaysian Coconut Curry Soup recipe, Noodle Recipes</t>
+  </si>
+  <si>
+    <t>For The Paste
+2 tbsp roughly chopped onions
+2 tbsp finely chopped lemon grass stems
+1/4 tsp turmeric powder (haldi)
+2 whole dry kashmiri red chillies , broken
+2 garlic (lehsun) cloves
+1 tsp tamarind (imli)
+1 tsp sugar
+salt to taste
+Other Ingredients
+1 tsp cornflour
+2 cups coconut milk
+1 tbsp oil
+2 1/2 cups vegetable stock
+salt to taste
+1/4 cup thinly sliced paneer (cottage cheese)
+1/2 cup bean sprouts
+1/2 cup boiled noodles
+For The Garnish
+basil leaves</t>
+  </si>
+  <si>
+    <t>Method
+For the paste
+Blend all the ingredients in a mixer to a smooth paste using 2 tablespoons of water. Keep aside.
+How to proceed
+Dissolve the cornflour in the coconut milk and keep aside.
+Heat the oil in a wok on a high flame, add the prepared paste and stir-fry for 1-2 minutes.
+Add the vegetable stock and salt and bring to boil.
+Lower the flame, add the coconut milk-cornflour mixture and simmer for 5 minutes.
+Add the paneer and bean sprouts and simmer for 2 more minutes. Do not overcook.
+To serve, put the boiled noodles into 4 individual bowls, pour hot soup on it and garnish with basil leaves.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/laksa-soup-%E2%80%93-vegetarian-malaysian-coconut-curry-soup-22541r</t>
+  </si>
+  <si>
+    <t>Vegetarian Sushi with Peanut Wasabi Sauce ( Healthy Starter Recipe )</t>
+  </si>
+  <si>
+    <t>For The Peanut Wasabi Sauce
+1 1/2 tsp chopped garlic (lehsun)
+2 tbsp roasted peanuts
+1 tbsp sugar
+2 green chillies
+1 tsp lemon juice
+salt to taste
+For The Sushi
+1/2 cup crumbled low-fat paneer (cottage cheese)
+1/2 tsp ginger-green chilli paste
+2 tbsp low-fat milk (99.7% fat-free)
+1/2 tsp freshly ground black pepper (kalimirch) powder
+24 big- size spinach (palak) leaves
+2 boiled baby corn , cut into thin strips or 1/4 cup , peeled , boiled and cut into thin strips
+1/2 carrot , peeled , boiled and cut into thin strips
+1/4 cucumber , peeled and cut into thin strips
+1/2 beetroot , boiled , peeled and cut into thin strips
+1 tsp chopped green chillies
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+For the peanut wasabi sauce
+Combine all the ingredients along with 3 tbsp of water and blend in a mixer to a smooth paste.
+Refrigerate till use.
+For the sushi
+Combine the paneer, ginger-green chilli paste milk and pepper in a bowl, mix well and keep aside.
+Blanch the spinach leaves in hot water for a while and refresh them with cold water.
+Pat dry each spinach leaf with a tissue or a thin soft cloth.
+Place a butter paper on a dry, flat surface and arrange the leaves such that they overlap each other.
+Spread the paneer mixture on the spinach leaves evenly, leaving a gap of ½” from all the sides.
+Place the vegetables at the tapering end of the spinach leaves and sprinkle salt and green chillies over it.
+Start rolling the butter paper, gently pressing it to compress the arrangements.
+As you roll the butter paper, gradually unwrap it simultaneously to expose the spinach leaves.
+Once the sushi has been rolled, use a sharp knife to slice the sushi into rings of ½” width.
+Serve immediately with peanut wasabi sauce.</t>
+  </si>
+  <si>
+    <t>Accompaniments
+Veggie Fruit Cocktail, Carrot Spinach and Black Grape Juice 
+Nutrient values (Abbrv) per piece
+Energy 20 cal
+Protein 0.8 g
+Carbohydrates 2.7 g
+Fiber 0.7 g
+Fat 0.7 g
+Cholesterol 0 mg
+Sodium 9.9 mg
+Click here to view calories for Vegetarian Sushi with Peanut Wasabi Sauce ( Healthy Starter Recipe )</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/vegetarian-sushi-with-peanut-wasabi-sauce--healthy-starter-recipe--34737r</t>
+  </si>
+  <si>
+    <t>Low Cal Vegetarian Noodles</t>
+  </si>
+  <si>
+    <t>Low Cal Vegetarian Noodles recipe</t>
+  </si>
+  <si>
+    <t>1 cup grated carrot
+1 cup chopped cabbage
+1 cup chopped french beans
+1 tsp vinegar
+1 tsp soy sauce
+1 tsp chilli sauce
+1/2 tsp sunflower oil or corn oil
+1 tsp soy sauce</t>
+  </si>
+  <si>
+    <t>30mins</t>
+  </si>
+  <si>
+    <t>15mins</t>
+  </si>
+  <si>
+    <t>Method
+Boil vegetables each seperately.
+Boil noodles.
+Remove water and add one drop of oil to seperate each noodle.
+Take 1/2 tsp. oil in a nonstick pan.
+Put the boiled vegetables and noodles,and cook for 5mins.
+Add soya sauce,vinegar,garlic and chilly sauce after removing from flame.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/low-cal-vegetarian-noodles-15913r</t>
+  </si>
+  <si>
+    <t>Vegetarian Haka Noodles</t>
+  </si>
+  <si>
+    <t>Vegetarian Haka Noodles recipe</t>
+  </si>
+  <si>
+    <t>100 gms noodles
+4 tbsp finely chopped ginger (adrak)
+1 tsp chopped green chillies
+1/2 cup chopped spring onions
+1/2 cup chopped carrots
+1/2 cup chopped capsicum
+1/2 cup bean sprouts
+1/4 cup finely chopped spring onions whites
+1/2 cup chopped cabbage
+a pinch of M.S.G
+1/4 tsp white pepper powder
+1 1/2 tbsp soy sauce
+4 tbsp oil
+salt to taste
+For the Noodles-
+5 cups water
+1 tsp oil
+1 tsp salt</t>
+  </si>
+  <si>
+    <t>NIL</t>
+  </si>
+  <si>
+    <t>Method
+Method for cooking noodles -
+Boil the water and add the noodles and salt. cook uncovered over a high flame for 2-3 minutes, stirring often.
+Remember to cook them at least an hour or two before they are required.
+Method for hakka noodles -
+Heat 4 tablespoons of oil in a non-stick pan with high edges.
+Add the ginger and green chilies. fry lightly.
+Add all the vegetables, ajinomoto, pepper and salt. stir fry over a high flame for 2 minutes.
+Add the soya sauce and the boiled noodles and stir fry over a high flame for 1 minute.
+Garnish with thin long pieces of spring onion tops.
+Serve very hot.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/vegetarian-haka-noodles-12288r</t>
+  </si>
+  <si>
+    <t>quinoa upma recipe | vegetable quinoa upma | veg Indian upma | how to make quinoa upma |</t>
+  </si>
+  <si>
+    <t>quinoa upma recipe | vegetable quinoa upma |</t>
+  </si>
+  <si>
+    <t>For Quinoa Veg Upma
+1/2 cup quinoa , washed and drained
+2 tsp oil
+1/2 tsp mustard seeds ( rai / sarson)
+1/4 tsp asafoetida (hing)
+1 tsp finely chopped green chillies
+1/2 tsp finely chopped ginger (adrak)
+4 curry leaves (kadi patta)
+2 tbsp raw peanuts
+1/2 cup finely chopped onions
+1/2 cup green peas
+1/4 cup finely chopped carrot
+1/4 tsp chilli powder
+salt to taste
+1/4 cup finely chopped coriander (dhania)
+1 tsp lemon juice</t>
+  </si>
+  <si>
+    <t>28 mins</t>
+  </si>
+  <si>
+    <t>Method
+For quinoa veg upma
+To make quinoa veg upma, heat the oil in a deep non-stick pan, add the mustard seeds and asafoetida and sauté on a medium flame for a few seconds.
+Add the green chillies, ginger and curry leaves and sauté on a medium flame for a few seconds.
+Add the peanuts and sauté on a medium flame for 1 minute.
+Add the onions and sauté on a medium flame for 2 minutes.
+Add the green peas and carrot and sauté on a medium flame for 2 minutes.
+Add the quinoa and sauté on a medium flame for 1 minute.
+Add the chilli powder, salt and 2¼ cups of hot water, mix well cover with a lid and cook on a medium flame for 20 to 22 minutes, while stirring occasionally.
+Switch off the flame, add the coriander and lemon juice and mix well.
+Serve the quinoa veg upma immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 150 cal
+Protein 5.3 g
+Carbohydrates 22.8 g
+Fiber 6.9 g
+Fat 5.1 g
+Cholesterol 0 mg
+Sodium 5.6 mg
+Click here to view calories for Quinoa Veg Upma, Vegan Breakfast</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/quinoa-veg-upma-vegan-breakfast-42265r</t>
+  </si>
+  <si>
+    <t>Vegan Oats and Coconut Milk Pudding</t>
+  </si>
+  <si>
+    <t>Vegan Oats and Coconut Milk Pudding recipe</t>
+  </si>
+  <si>
+    <t>1/2 cup quick cooking rolled oats
+1 1/4 cups coconut milk (nariyal ka doodh)
+1 1/2 tbsp peanut butter
+1 tsp maple syrup or honey
+1/2 tsp vanilla essence
+For Garnish
+1 tbsp almond (badam) slivers</t>
+  </si>
+  <si>
+    <t>Method
+Combine all the ingredient in a mixer and blend it till smooth.
+Pour the mixture in a deep bowl, cover it with a lid and keep it in the refrigerator to set for 24 hours.
+Garnish it with almond and serve.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 355 cal
+Protein 3.2 g
+Carbohydrates 19.7 g
+Fiber 2 g
+Fat 29 g
+Cholesterol 41.2 mg
+Sodium 141 mg
+Click here to view calories for Vegan Oats and Coconut Milk Pudding</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/vegan-oats-and-coconut-milk-pudding-42346r</t>
+  </si>
+  <si>
+    <t>Vegan Tangy Apricot Crunch Muffins</t>
+  </si>
+  <si>
+    <t>Vegan Tangy Apricot Crunch Muffins recipe</t>
+  </si>
+  <si>
+    <t>3/4 cup unsweetened almond milk
+3 tbsp falooda seeds (subza)
+1 cup almond flour
+1 1/2 cups plain flour (maida)
+1 tbsp baking powder
+1/4 tsp baking soda
+1/8 tsp turmeric powder (haldi)
+1/2 cup maple syrup
+1/2 cup unsweetened apricot nectar
+1/4 cup coconut oil
+1/4 cup lemon juice
+3 tbsp grated lemon zest of 3 large
+1/4 tsp sea salt
+3 small plums or large apricots , pitted and quartered</t>
+  </si>
+  <si>
+    <t>35 mins</t>
+  </si>
+  <si>
+    <t>Method
+Preheat oven to 350°f. Line cups of standard muffin pan with paper liners.
+Mix together almond milk and chia seeds in medium bowl. Set aside 10 minutes, or until thickened.
+Place almond meal in separate bowl, and sift in maida, baking powder, baking soda, and turmeric; whisk together.
+Mix maple syrup, apricot nectar, coconut oil, lemon juice, lemon zest, and sea salt into chia seed mixture. Pour into flour mixture; stir until batter is just combined.
+Avoid over mixing or you would end up with a bread like batter
+Scoop rounded 1/3 cup batter into each prepared muffin cup.
+Lightly press 1 plum quarter into center of each muffin.
+Bake for 35 minutes, or until toothpick inserted in center of muffins comes out clean and edges are golden.
+Cool in pan for 5 minutes, then transfer to wire rack to cool.
+NOTE
+You can use Frozen or canned fruit quarters instead of the fresh apricots/plums</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/vegan-tangy-apricot-crunch-muffins-40228r</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -409,48 +2363,920 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB993BC-4C18-423D-8D00-369B109DABDC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>245</v>
+      </c>
+      <c r="I3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57D93CF-6643-42E5-9300-6305BC42D47F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" t="s">
+        <v>96</v>
+      </c>
+      <c r="K15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I19" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E75416C5-1384-4373-B6D8-7CB73ED6706C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I2" t="s">
+        <v>204</v>
+      </c>
+      <c r="K2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>209</v>
+      </c>
+      <c r="I3" t="s">
+        <v>210</v>
+      </c>
+      <c r="K3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I4" t="s">
+        <v>139</v>
+      </c>
+      <c r="K4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I5" t="s">
+        <v>145</v>
+      </c>
+      <c r="K5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I6" t="s">
+        <v>151</v>
+      </c>
+      <c r="K6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I8" t="s">
+        <v>164</v>
+      </c>
+      <c r="K8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72383D9-B908-4D8A-ABAD-3E172B05A758}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H3" t="s">
+        <v>233</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -465,7 +3291,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.88671875" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="34.88671875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
